--- a/SVM_modeltesting_results.xlsx
+++ b/SVM_modeltesting_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP8"/>
+  <dimension ref="A1:AN8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>foodie</t>
+          <t>islamabad</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>islamabad</t>
+          <t>order</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -456,29 +456,29 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>recipe</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>burger</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>cake</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>eid</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>chicken</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>order</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>food</t>
-        </is>
-      </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
           <t>gift</t>
@@ -486,69 +486,69 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>pakistan</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>box</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>limited</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>day</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>one</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>world</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>jewelrystorage</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>faisalabad</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>musthave</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>yearendingsale</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>winter</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>style</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>online</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>collection</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>fashion</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>instores</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>collection</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>summer</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>style</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>detail</t>
-        </is>
-      </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
           <t>dress</t>
@@ -561,85 +561,75 @@
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
+          <t>beauty</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>concealer</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
           <t>makeupartist</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>concealer</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>lipstick</t>
-        </is>
-      </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>stunning</t>
+          <t>winteroutfit</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>winterfashion</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>winteroutfit</t>
+          <t>highlighter</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>winterfashion</t>
+          <t>fitness</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>fitness</t>
+          <t>workout</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>workout</t>
+          <t>exercise</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>exercise</t>
+          <t>sadiaariffitness</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>fitnessmodel</t>
+          <t>outfitideas</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>bodybuilding</t>
+          <t>classy</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>sadiaariffitness</t>
+          <t>competition</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>instagram</t>
+          <t>predicted_category</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>trending</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>predicted_category</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>actualcategory</t>
         </is>
@@ -661,20 +651,20 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>16</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
@@ -682,11 +672,11 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>2</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
@@ -762,18 +752,12 @@
       <c r="AL2" t="n">
         <v>0</v>
       </c>
-      <c r="AM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>food</t>
         </is>
@@ -814,40 +798,40 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2</v>
       </c>
-      <c r="L3" t="n">
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>6</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
         <v>1</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3</v>
-      </c>
-      <c r="U3" t="n">
-        <v>4</v>
-      </c>
-      <c r="V3" t="n">
-        <v>6</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -897,18 +881,12 @@
       <c r="AL3" t="n">
         <v>0</v>
       </c>
-      <c r="AM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -921,10 +899,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -948,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -966,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>4</v>
       </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -981,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -1031,18 +1009,12 @@
       <c r="AL4" t="n">
         <v>0</v>
       </c>
-      <c r="AM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
@@ -1055,29 +1027,29 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>3</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>4</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>26</v>
-      </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
@@ -1085,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
@@ -1106,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1165,18 +1137,12 @@
       <c r="AL5" t="n">
         <v>0</v>
       </c>
-      <c r="AM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>food</t>
         </is>
@@ -1189,67 +1155,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>10</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>1</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
+      <c r="T6" t="n">
         <v>3</v>
       </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1261,7 +1227,7 @@
         <v>8</v>
       </c>
       <c r="Z6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
@@ -1276,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6" t="n">
         <v>0</v>
@@ -1299,18 +1265,12 @@
       <c r="AL6" t="n">
         <v>0</v>
       </c>
-      <c r="AM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
       </c>
-      <c r="AP6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>Beauty</t>
         </is>
@@ -1332,16 +1292,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
         <v>1</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1350,20 +1310,20 @@
         <v>34</v>
       </c>
       <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>14</v>
+      </c>
+      <c r="M7" t="n">
         <v>3</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>3</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
@@ -1433,18 +1393,12 @@
       <c r="AL7" t="n">
         <v>0</v>
       </c>
-      <c r="AM7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
       </c>
-      <c r="AP7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>GiftShop</t>
         </is>
@@ -1457,128 +1411,122 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>7</v>
       </c>
-      <c r="L8" t="n">
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH8" t="n">
         <v>2</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>13</v>
-      </c>
       <c r="AI8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
         <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
         <v>0</v>
       </c>
-      <c r="AM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>Clothing</t>
         </is>
       </c>
-      <c r="AP8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>Fitness</t>
         </is>
